--- a/GameModules/Localization_BattleSkill.xlsx
+++ b/GameModules/Localization_BattleSkill.xlsx
@@ -15756,9 +15756,9 @@
       </c>
       <c r="H168" s="2720" t="inlineStr">
         <is>
-          <t>ඞПриготовьтесь к следующему раунду, чтобы нанести точный удар по врагу, собрав все свои силы в боевую стойку.
-В этом ходе скорость +40, и если ваша основная рука оснащена более мощным оружием, все пассивные проверки будут проводиться с использованием STR.
-Если вы достигнете состояния [Приготовиться к атаке], в следующий ход добавьте 2 бонусных кубика к своей атаке, и эта атака не будет отбита. Если вы атакуете обычным или усиленным оружием, оно нанесет максимальный урон при попадании.</t>
+          <t>Приготовьтесь к следующему раунду, чтобы нанести точный удар по врагу.
+Скорость+40. Если в основной руке оружие с типом СИЛ, все пассивные проверки будут проводиться с использованием СИЛ.
+Получите [Подготовка], в следующий ход которая добавляет 2 бонусных кубика к атаке, и не вызывает контратаку. Если вы атакуете обычным или СИЛ оружием, оно нанесет максимальный урон при попадании.</t>
         </is>
       </c>
     </row>
@@ -20828,7 +20828,7 @@
       </c>
       <c r="H285" s="2720" t="inlineStr">
         <is>
-          <t>ඞБросок копья</t>
+          <t>Метнуть копье</t>
         </is>
       </c>
     </row>
